--- a/500all/speech_level/speeches_CHRG-114hhrg97494.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97494.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman. I am delighted that you are all here today. We appreciate it very much.    On behalf of the ranking chair, Mr. Smith, I wanted to submit his statement for the record and also acknowledge how difficult it is to find that appropriate balance between the acquisition cycle time, and risk. We know that needs to be done. And also, how do we nurture innovation and developmental testing within the acquisition cycle. That is also a big concern and something that he notes in this particular statement.    Again, thank you very much for being here. We look forward to your testimony.    The Chairman. Thank the gentlelady.    [The prepared statement of Mr. Smith can be found in the Appendix on page 45.]    The Chairman. We will now turn to our witnesses, Mr. Andrew Hunter, director of Defense-Industrial Initiatives Group at Center for Strategic and International Studies [CSIS]; Dr. David Chu, President of the Institute for Defense Analyses [IDA]; Mr. Joe Pasqua, member of the Business Executives for National Security [BENS]; and Mr. Paul Francis, managing director for acquisition and source management from the Government Accountability Office [GAO].    Without objection, your full written statements will be made part of the record, and I would ask each of you to summarize them at this point before we go to questions.    Mr. Hunter, I guess we are starting with you.</t>
   </si>
   <si>
     <t>412283</t>
   </si>
   <si>
-    <t>Duncan Hunter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hunter. Well, thank you, Mr. Chairman. And it is really a pleasure to be back here at the committee where I spent so much time learning from members like yourself, some of whom are still here and some of whom have departed the Congress. But it is a pleasure to be back.    And I commend the committee for its focus on acquisition reform, which is, I know, a focus of longstanding, but remains a very important focus, and obviously one that brings you into alignment, as you mentioned, with the leadership of the Senate Armed Services Committee and with the leadership of the Department of Defense.    And I do believe there is a golden opportunity here with this meeting of the minds or alignment of focus to make some real progress. And certainly at CSIS this has been a focus for us as well, so it is something that we share.    The focus today is on ``faster.'' I want to briefly mention the fact that acquisition is about balancing priorities. And so the old saw, ``Faster, better, cheaper: Pick any two,'' is something that I just want to start and mention that in picking ``faster'' you have to be willing to sacrifice at least one of the other two. And when I say ``sacrifice,'' I mean deemphasize or make a lower priority. And so if you are going ``faster,'' then either ``better'' or ``cheaper'' has to sort of be willing to give a bit in order to achieve a significantly faster outcome.    Now, of course, when I say ``sacrifice,'' when I mean ``better,'' better meaning not necessarily the highest end of capabilities. If you have a really old system, the new system you are buying is almost certainly going to be better than the one you are replacing, but it may not be the state of the art of the most latest technology. And these priorities shift over time.    And in the Cold War, in most cases, ``better'' was often the priority. I use in my written testimony the example of the B-2, which was innovative in almost every way as it was built and conceived and constructed, and that meant that it was expensive. And there was a major schedule delay in that program particularly because they changed the requirements in the middle of the development. And that was a choice that was made because ``better'' was what mattered then.    In the most recent time period, with the wars in Iraq and Afghanistan, ``faster'' has certainly been a priority. In my time at the Department of Defense, part of which was as director of the Joint Rapid Acquisition Cell, was really all about moving faster. And the Department achieved quite a bit of success in that, and I will get into that, because I think that is something that there are lessons learned that we need to take away from that.    But I do want to mention that in the time that we are in today, ``faster'' is not the only priority. We have an erosion of U.S. technical superiority that has been taking place over a number of years for a number of reasons, and we explored what some of those reasons are, in a CSIS report released over the summer.    And that is a case where we do need to be fielding at least some systems that are in the ``better'' category, where ``better'' is a priority so that we can maintain a technological advantage, which is part of our strategy. And also with the budget crisis that is currently being dealt with in the Congress, and maybe there is hopefully some progress being made there, ``cheaper'' has to be a priority for some systems. So your system has to be able to focus on different priorities for different systems at the same time.    Within my time as director of the Joint Rapid Acquisition Cell, we tried to capture the lessons learned from rapid acquisition. This was something that really spun up at the Department of Defense in the 2005 timeframe. And I came in, in 2013 as director of the Joint Rapid Acquisition Cell when we were trying to capture the lessons learned and trying to institutionalize those lessons. And Secretary Gates in his testimony last week made reference to the desire to institutionalize those lessons.    And I would draw your attention to the article in Foreign Affairs Magazine that Dr. Carter published in 2013 which goes into the lessons that he took away and how he tried to institutionalize those. And I would ask, if you are willing, that that might be made part of the record for this hearing, that article.    [The information referred to can be found in the Appendix on page 95.]</t>
   </si>
   <si>
@@ -73,21 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Chu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Chu. Thank you, Mr. Chairman. I appreciate the opportunity to be part of the panel this morning.    Let me try to summarize my written statement under three headings: First, what do we know about cycle time defined as the time from the start of a program until initial operational capability is achieved; second, to the extent there are issues with cycle time, what are they; and third, what can we do about those issues.    Looking at the Selected Acquisition Report data of the last 25, 30 years, I do not see any trend in the cycle time. Cycle time has been relatively stable, 8 to 9 years over that period. Our impression is very different, perhaps because some very large programs have taken a long time: F-22, V-22, and F-35, which, of course, is not completely finished with its development program.    To the extent that there is dissatisfaction with cycle time, I think a good deal of the source lies in the definition of the program at the start, what people like to call the requirements process, a term I actually would urge we drop. Because, in fact, we are always picking a point in the space of trades among the various features of the system concerned.    And our real interest ought to be how well the system performs against the mission needs for those in the field who are going to get it. Too often, from a technical perspective, looking back at history, we pick a point in the trade space that is too tough to achieve from a technological perspective within the timeframe that we might desire.    And that tendency is exacerbated, I would argue, by the incentives facing those responsible for the system, starting with the program manager. We reward program managers for getting programs to production, not for helping the system make a good decision, which in some cases, is to admit we have made a mistake and the program ought to end.    The services, likewise eager to have as much content within the fiscal guidance as they can possibly achieve, tend to plan for more than can actually be financed. And the companies look to production for the source of their return on capital have every incentive to be optimistic about development time and development needs.    If those are the sources of our dissatisfaction, what can we do about them? First and foremost, I think at the start we ought to take what some of my colleagues have called a physics-based approach to setting the technical parameters. What does the trade space look like? What point within that trade space do we want to select?    Second, as Mr. Hunter suggested, as one of my colleagues has phrased a bit edgily, we should prepare to be wrong. We should build systems knowing--especially the major platforms--knowing that we are likely to want to change them to aim at block upgrades across their lifetime, that means allowing for extra space, weight, power, et cetera, in the original design.    To be sure that we have picked the parameters thoughtfully, I think greater emphasis on development testing is essential. The Department System Acquisition Reform Act of 2009 called for that, and the fiscal year 2016 National Defense Authorization Act strengthens those provisions.    And finally, I think we ought to rethink the incentives that face the program managers and the services as well as the companies that produce the articles to emphasize, much as Intel does, as I understand it, that really the rewards are to go to those who give good advice, and sometimes that advice is the program is not meritorious, that not every program started ought to go to a finish.    Let me offer three observations very briefly in conclusion. First, I think the emphasis I would urge is less on whether or not we shorten the cycle time and more on understanding how do we pick the best cycle time for the need that we face. In some cases, we want an article urgently, we are willing to give up certain elements of performance in order to get that, or certain elements of long life that we would otherwise seek. MRAP is an excellent case in point. MRAP was achieved fairly rapidly, but was an article we decided not to retain, and we discarded approximately $40 billion worth of equipment. Some additional bias for flexibility will be helpful in shortening cycle times for those articles we want quickly.    Second, I think it is essential to keep our focus on mission performance as the ultimate standard, not on the technical parameters per se. It is the mission needs that are crucial. That includes, of course, deployment deadlines when those are significant.    And finally, as Secretary Gates' testimony, I would argue, last week at the Senate Armed Services Committee contended, perhaps the most important ingredient in success is the human capital, the quality of the people managing the system and the technical staff that support them, an issue, I think, that the National Defense Authorization Act for this fiscal year recognizes.    Thank you, Mr. Chairman.    [The prepared statement of Dr. Chu can be found in the Appendix on page 60.]    The Chairman. Thank you.    Mr. Pasqua.</t>
   </si>
   <si>
-    <t>Pasqua</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pasqua. Chairman Thornberry, members of the committee, my name is Joe Pasqua, and I am honored to be here today as a private citizen to address you.    Having been asked for ways to address shortening of the defense acquisition cycle, my statement today will focus on how the private sector has addressed similar challenges and increased their ability to adopt innovation quickly.    My testimony is based on over three decades in the information technology, the IT industry, and also as a member of BENS, Business Executives for National Security, which is a nonprofit, nonpartisan organization that for over 30 years has been a conduit through which private sector leaders can help build a more secure America. Although the opinions I am going to express today are largely reflective of BENS's perspectives, the views I express are my own.    I would first like to commend the committee's efforts at acquisition reform. I agree with Chairman Thornberry's approach to make incremental and achievable changes as a path to comprehensive reform. Because of the central role of IT in virtually all modern systems, the ability to efficiently specify, acquire, and adopt IT innovation has become a key success factor. Smaller, more agile companies are often the best sources of innovation; however, they can often be the most difficult to identify and engage with for large organizations.    In the past, barriers for both the Department and these small companies have impeded building effective relationships. Traditionally smaller companies haven't viewed DOD [Department of Defense] as a viable customer because they lack the specialized knowledge and the time that is required for operating in this space. It is not that they don't want to engage with DOD; it is just that it is too high a risk for these still small businesses.    So the question becomes, how are private sector companies addressing similar challenges? Over the last 5 to 7 years, there has been a fundamental change in the way that they specify and acquire IT. The rapid pace of innovation has made long, expensive requirements processes untenable. As a result, we are seeing less of what I referred to as ``big bang'' acquisitions; instead, companies are starting small, conducting iterative evaluations in real time, and adjusting as needed. Advances in cloud computing, scale-out architectures, and other technologies have enabled companies to test concepts quickly and purchase IT hardware as they need it rather than buying everything upfront.    This has been a challenge, quite frankly, for large organizations with high inertia and low risk thresholds. But even with these larger organizations, we are seeing that they are becoming more agile as a way to keep pace in a competitive marketplace. This shift has lessened the bias towards large, incumbent vendors and has given innovative new players a better opportunity to compete.    This new approach also helps to remove risk by keeping the initial investments small. Traditional requirements processes attempt to mitigate risk by conducting long-term, expensive studies to ensure all options, every conceivable outcome can be reviewed in advance of a decision. In contrast, an agile approach allows companies to start small and scale up as appropriate, thereby reducing the need for protracted requirements processes.    In fact, a traditional process has a different sort of risk, the risk that by the time a long acquisition process is complete, the solution that is chosen will no longer be appropriate. Nowhere is this more true in cyberspace where the threat landscape is changing on a continuous basis. In such a dynamic space, the requirements process needs to account for an organization's current needs and be able to adapt to the inevitable changes that will come. This is one reason why open architecture is so important. It provides increased interoperability, modularity, and the ability to incorporate new technologies without overhauling an entire system.    In summary, I believe that these practices and understanding and implementing these approaches would help the Department to become more agile and responsive to innovation, allow a slightly different, yet still very good risk mitigation strategy, and encourage participation from a wider segment of industry.    Thank you for the opportunity to speak today, and I am prepared to answer any questions you may have.    [The prepared statement of Mr. Pasqua can be found in the Appendix on page 71.]    The Chairman. Thank you.    Mr. Francis.</t>
   </si>
   <si>
-    <t>Francis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Francis. Good morning, Mr. Chairman, Mrs. Davis, members of the committee. I appreciate the opportunity to talk about weapons system acquisition this morning.    I think we know the overall problems being, weapons systems cost more and they take longer than expected. They perform well but generally not quite as well as we thought. I believe some of the top-level consequences are understood, that is the warfighter is somewhat underserved by systems that come late and buying power is reduced.    There are other consequences maybe that are less well understood; that is, when we pay more for a weapons system than we thought that we would in the beginning, we are making tradeoffs. We are deciding not to do other things because we are putting more money into this one system. And those opportunity costs I don't think are explicit or the tradeoffs are looked at, so we are not quite sure what we are giving up to put more money into system A.    The other thing is, weapons systems typically take more to operate and support than we think. They are a little less reliable. Again, those costs are kind of hidden once the acquisition is done. So, some consequences not so clear.    Our position is that the key to getting better acquisition outcomes, whether they are shorter cycle times, or as Dr. Chu mentioned, the right cycle times, is a better business case at milestone B. And I will talk about a business case in two parts: One is, what happens before milestone B. And that is when you are sending requirements and you really need your requirements to be--they need to be clear, flexible, but well informed by a couple of things: One is technology knowledge. How much technology is available to meet the requirement; and your engineering expertise. Do you understand the implications of the requirement for the design?    So if you come to a milestone B and you are asking for technologies that aren't mature yet, or you don't quite understand the implications for the design, you are in trouble. If you do come to milestone B with a pretty well-informed, reasonable set of requirements then you are kind of ready for the second half. And the second half of that is, what is your game plan going forward.    And we would say the second part of that business case then is a knowledge-based acquisition strategy that lays out a logical path for getting the design stable, building prototypes, testing, maturing the design, maturing production processes, and laying that out with the schedule and resources that allow that to be done nonconcurrently.    So, you ask yourself, well, why aren't we getting these kind of business cases routinely? Which is the David Packard question. We all know what needs to be done; the question is, why don't we do it? And I would say what I just described is a sound business case, but a sound business case isn't the same as a successful business case. And a successful business case is one that wins money.    And I still think predominantly in the Department, a successful business case is one that overstates or overpromises performance and understates cost and understates schedule. That is what still wins money today. And I would say the reason for that is there is still strong incentives, which we refer to as the acquisition culture in the Department, that put pressure on these kind of business cases.    And I will give you a couple examples of what is kind of under the hood. First is the competition for funds in the Pentagon is pretty intense to start a new program, so that does create incentives to overpromise performance and understate the investment cost. Also, weapons systems are highly symbolic. They are more than just a piece of equipment at the right price. They involve policies, roles and missions, careers, jobs, budget shares, so they carry a lot of weight.    If you look at the private sector, when the private sector does a product development, it is an expense. They are spending their own money to finance the development and they don't make any money until they get into production. So that creates real incentives to get the business case right, because if they are late, the customer walks. If you are Ford and you build a Ford Taurus that is 5 years late, it has a $50,000 sticker price and it gets bad gas mileage, your customer walks, and the investment is lost.    And the Department of Defense, when you get a program started, it is a revenue stream. It is not an expense. So you get a bigger budget share. And those incentives then are quite different. And at the end, the customer isn't going to walk. So if it costs too much, it takes longer, it underperforms, the customer is still going to buy.    So in the private sector, the point of sale is after development when you are in production. In the Department of Defense, the point of sale is at milestone B. In fact, I would say it is before milestone B when you first approve funding. So it is a completely different psychology.    That is why things like--practices like cost estimating, everyone wants--or you would say policy says we should have good cost estimates. We all know how to do a good cost estimate. But they don't really help your business case. They are pretty inconvenient if they are high. Same is true for a fly-before-buy in testing. You would want early test results to see how good the system is, but they could be inconvenient as well.    So I think the real kicker is, to the extent business cases like this win funding approval they are sanctioned, and those principles then become what policy is, not what is in best practices or DOD policy.    So what to do, I would just say let's start thinking about the acquisition process as not something that is broken but something that is held in equilibrium by a set of incentives that are stronger than best practices. You know, moving forward there is a number of things we can do, we will probably talk about that more this morning, but it is going to take joint action on the part of the DOD and Congress.    And I will just list a few things. One is we need to separate technology development from product development; we need to take risks in the right places, which I would say is early in programs; and if we have to take a risk on a program after milestone B, let's declare them and pay for them. Let's take the risk together and be honest about them.    We have to do something about better aligning funding decisions with program decisions, because today you are having to make a funding decision 18 months in advance of a program decision. So once you put money on the table you can't take it off. We really need, as Dr. Chu mentioned, a really good investment in program managers and systems engineering staff.    And then finally, I would say my hope, my appeal is to Congress to be the game changer in acquisition reform and that will be manifested by what you do in funding programs. So I would say for programs that don't measure up to good business cases, say no. I think a couple of good no's in the process from the Congress is going to send the right example as to what you expect.    So that is my hope. I am looking for you to be the game changers. Thank you, Mr. Chairman.    [The prepared statement of Mr. Francis can be found in the Appendix on page 79.]    The Chairman. Thank you.    I just want to ask each of you to comment, because each of you have touched on this in the comments that you have made so far. And one of the concerns that I have heard over and over is, especially for complex systems, we invent as we are in production. Dr. Chu said we reward programs for getting into production. Mr. Francis was just talking about this. So the incentive of the current system is to get that program past the milestone B, that is where you get the dedicated line of funding, and the incentive is to do that even if the technology has not been developed that you are going to rely upon.    And so, part of what happens is you are inventing as you are producing, and that results in delays, cost overruns, and so forth. So the suggestion has been made to me that if you separate technology development from production and you don't take anything to production until the technology is established and proven, that maybe you could improve that situation with the adaptability that you all talked about so that as improvements in technology are developed, then you can plug it in.    So Mr. Hunter, what is your reaction to that? I mean, part of what we are trying to do is get below the symptoms, the surface here, and dig down into deeper root causes that have caused people concern. Is this a root cause, and is that something that together we should explore with the Pentagon?</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Chairman, first of all, I want to thank you for your work in this area. You have done a lot to move this forward and this hearing is one of those things.    And our committee is always--we spend some time in the weeds looking at the specificity of what we need to do and then we move up and get kind of an aerial view. There are times we need to do the aerial because it shows us the trajectory and the curve lines that we have.    When Eisenhower left office in 1961, he warned of the influence of a permanent armaments industry of vast proportions. But in the years of the Cold War, we have seen the size of our industrial base shrink along with defense spending. 1961 defense contractors comprised 15 of the top 100 companies in America and made 30 percent of those top 100 companies' total revenue. Today, there are only 4 defense contractors in the top 100 and they make 4 percent of the total revenue.    Now, I know that is in part due to mergers and acquisitions and also tremendous growth in the commercial sector. But unfortunately for our national defense many of the commercial companies are hesitant to work with the DOD due to low profit margins, huge regulatory burdens, and demands that they turn over intellectual property.    Could you guys give us your opinion of the curve lines that you see that worry you about the industrial base and the acquisition process in terms of the health of our industrial base and its ability to meet the needs of our military, and also the flexibility that we might have. You know, we all talk about often in World War II how we could shift our manufacturing and produce other things. What worries you today about those curve lines, and is there anything we can do as a Congress to impact the curve lines?    Mr. Hunter, do you mind giving us your thoughts.</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman. And I too want to echo my thanks for you grabbing onto this issue we all know is critically important in working in. Thank you all for being here.    Just a couple questions, and I am interested amongst the different services and the performance amongst them because there appears to be a difference, if there is some lessons learned or if it is the nature of the service. This idea of breaches going through the cost ceiling's scheduled performance or whatever. I started looking at this.    While this pains me to say as a former soldier, the Army leads in this area with a 38 percent breach. I am kind of curious, from your perspectives, is this cultural? Is it the nature of it? Or what is at work there that would set them apart from the Air Force and the Navy?</t>
   </si>
   <si>
@@ -190,9 +169,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    I will throw this out for whoever wants to swing at it. Do you believe there is a bias in DOD goods and services procurement against public/private partnerships? For example, does it make sense for OMB [Office of Management and Budget] and CBO [Congressional Budget Office] to require 1-year scoring of the entire liability of a public/private partnership but not the same treatment for traditional goods and services government to contractor procurement? Dr. Chu.</t>
   </si>
   <si>
@@ -232,9 +208,6 @@
     <t xml:space="preserve">    Mr. Rogers. Thank you. I yield back.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Mr. Francis, I was very interested by your comments about opportunity costs and that when we have cost and time overruns, it is not just money and time in an absolute sense; it is the loss of something else that we could have been focusing on, spending dollars on, spending time on. I know it is hard to quantify a negative, but do you have any examples of what some of those opportunity costs were, specific programs?</t>
   </si>
   <si>
@@ -271,9 +244,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman. Gentlemen, thank you for joining us today. I want to talk about how things happen within the decisionmaking process on acquisition, and you pointed out some success models at the smaller scale where you can take a concept that comes from unit commanders. You develop that process of developing that idea with systems engineers, and you have program managers involved and contracting officers, and you end up with something that works and resembles what was needed at the very beginning. So that small-scale process you have shown works.    Let me ask this. How do we take that and graduate it to the large scale? How do we take emerging technology, compress the time process, be able to make sure that we have great communications from the unit commanders, to the systems engineers, to the program managers, to the contracting professionals, and getting that done?    It seems like to me today what we have is we have the unit commanders that are here, and then in a whole separate element there is the systems engineers that take that concept and develop it, and then in a separate place, in another area, are the folks that write the requirements, and then another group of folks that come up with the proposals and another group of folks that come up with the contracting process, so all of this is fragmented, and no wonder decision making goes awry, especially when it seems to be process-driven. People seem to be I got to check the box. And if I check the box, then I have done my job. Instead of saying, you know, let's focus on what the warfighter needs. Let's focus on getting that technology to them as quickly as we can. How do we do that?    How do we put authority into the hands of those people at every point in the process? How do we bring the decision making together? And how do we make sure that we also have accountability there so we don't go awry, or if we do go awry, we can either get things back on track or stop things immediately? Give me your perspective on how we make those things happen.</t>
   </si>
   <si>
@@ -298,9 +268,6 @@
     <t>412632</t>
   </si>
   <si>
-    <t>Seth Moulton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman. Gentlemen, thank you for being here. I just want to echo the chairman's comments that he began with, which were that I think that this is partly about conserving taxpayer dollars, which we know is incredibly important, especially in this budgetary environment, but even more importantly it is about responding to the next threats.    And you know, companies used to succeed in the light bulb industry by trying to be most efficient at making the light bulb for the least cost, and now companies succeed in that industry by being the quickest to develop the newest type of light bulb, to be the quickest into LED [light-emitting diode] technology. I think in my long tenure of almost 11 months on the committee, I have been a strong advocate of cutting programs that we don't need and old systems and legacy systems so that we can invest that money in the new ones, which I think is incredibly important.    One of the things that we need to do more of, as you have said, is be willing to accept the fact that technology development does not just occur in the Department of Defense anymore. It occurs outside. And there seems to be a conflict between the desire to get more commercial-off-the-shelf technology, and the MIL [military] standard requirements that this technology then has to meet.    And I think about how much more effective I would have been as an infantry officer on the battlefield if I could have used an iPhone. Now, if I were to get killed because my iPhone didn't meet that 100 percent requirement and failed at some point, there would be a lot of grief. But on the other hand, if we don't allow the iPhone on the battlefield for years because it can't meet that 100 percent requirement, a lot of people are going to die. And you might not see the news stories about it, but it will be a loss as well. So how do you think about better managing that conflict?</t>
   </si>
   <si>
@@ -331,9 +298,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. And I think the question of is perfection the enemy, is good enough to get the job done, is something that we all wrestle with. And I also wrestle with, for example, cancelling the F-22 line before another plane is ready to go. I don't think that General Electric or any manufacturer in the world would stop one line of refrigerators before they had another line that had proven that it was capable of doing so.    I want to talk with you a little bit about the rapid acquisition process and the JSTARS [Joint Surveillance Target Attack Radar System], that E-8 platform flies out of Robbins Air Force Base. We have discussed for a long time the rapid acquisition process. And this is effectively a platform where the technology is ready to go. It is just a matter of getting the go-ahead if you will and the decision from the Department of Defense with regard to which platform they want to go with, and we are going to end up with an operational capability gap because of the depot maintenance that is going to be required on that platform, and there is not a battle management platform that can take its place going forward.    So, just if you could speak to why is there the delay when the Air Force knows what it wants, when they know the rapid acquisition process would save money, they know they have to field a new fleet, and the delay is actually going to result in an operational capability gap of a couple of years before full operational capability comes back, what factors contribute to programs being lengthened, even when they have those high levels of technological readiness for the major systems and subsystems?</t>
   </si>
   <si>
@@ -349,9 +313,6 @@
     <t xml:space="preserve">    Mr. Scott. What about just the example of shutting down, for example, the C-17 line without another lift capability ready to go? I am out of time. I apologize. I yield.    The Chairman. Interesting questions. Mr. Castro.</t>
   </si>
   <si>
-    <t>Castro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Castro. Thanks, Chairman. I know that we talked about the competitiveness of the process in contracting and how it has become dominated over the years by a smaller group of companies. Some of that is due to consolidation. We also talked about how hard it is for commercial enterprises to break into defense work.    So I guess let me ask you, we also have in front of us information on the cost overruns and breaches for each of the divisions. Is there any penalty for a contractor who experiences a cost overrun on a contract? Or I should ask what is the penalty?</t>
   </si>
   <si>
@@ -397,9 +358,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. Over the course of the war in Afghanistan, we saw ground combat vehicles undergo a number of upgrades and additions because of new and increasing threats. But specifically in the Army, protecting the safety of our soldiers also added additional weight of combat vehicles, and, therefore, we had subsequent challenges to maneuverability and rapid deployability.    I represent the Army's 10th Mountain Division, and lightweight weapons systems, body armor, and operational mobility are essential capabilities for the 10th Mountain. So the struggle as I see it is how do you balance the weight against the protection, against the budget? So for example, obviously a vehicle built out of titanium would address the weight challenges, but the cost would be much greater.    So how can we as Congress help the DOD make those needed upgrades or obtain new and affordable materials which are able to stop emerging threats?</t>
   </si>
   <si>
@@ -427,9 +385,6 @@
     <t>412259</t>
   </si>
   <si>
-    <t>Jackie Speier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Speier. Thank you, Mr. Chairman. Thank you to our experts who are here today. You know it has been said that we have the best weapons in the world, but our acquisition pipeline often gets us those weapons late and over budget.    Mr. Francis, you have said that to describe our acquisition process as broken is an oversimplification because it implies that it can merely be fixed. Time and time again we have tried to overhaul this process. We come up with the same challenges, an ingrained culture, an inadequately trained workforce, an inexperienced set of program managers, and a dangerous revolving door to industry.    In March of 2015, the GAO issued a report that 19 of the 38 assessed programs reported they planned to begin production prior to completing software development needed for baseline capabilities. A perfect example is the F-35, where software for even basic capabilities necessary for testing and evaluation are running months behind. As weapons systems grow in complexity, this is a problem that will come up more often than before.    How can we adjust our acquisitions process to better develop and test the software components of the hardware? And that question is open to any of you.</t>
   </si>
   <si>
@@ -451,9 +406,6 @@
     <t>400379</t>
   </si>
   <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Just following up on that, you talked about all those programs that have been to be, quote, ``looked at.'' Obviously, they have to be looked at. They are going to cost us billions of dollars. You are planning on building them. Looked at, A, from the standpoint of do we even need it? Is that is what you are saying? I mean, if you could be specific because, I mean, you rattled off basically all of the major programs that we are planning on building over the course of the next decade or so.    And you know, Ohio class, Long Range Strike, JLTV [Joint Light Tactical Vehicle], are there any of those that you would say from a warfighting standpoint, why are we building this? We don't really need it. That is one. And then two, are we making some of the same mistakes with those programs that we made with the F-35, basically constructing the plane as it is working its way down the runway? And those are my two questions.</t>
   </si>
   <si>
@@ -535,9 +487,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman. And thank the gentlemen. I spent 26 years in the Air Force, and I was lucky that I didn't get any assignments to the Pentagon. So my perspective comes from the warfighter end of that perspective.    We had a hearing earlier this year and my first question is about development of aircraft, not Joint Strike Fighter-type aircraft, but say, follow-on to the EC130, or follow-on to the A-10 for a light-attack aircraft.    In a hearing earlier this year, I asked the Pentagon official if we decided today that we wanted to develop a light-attack aircraft--again, this is not complicated technology. It is just all of the things that we have learned about what does permissive CAS [close air support] and does it well to follow on to the A-10, and we decided, today if we wanted to do it, how long would it take? And he said about 15 years, I think was his answer.    I look at the EC130. We know the guts of the EC130 is working. It has got a great mission set. We know it needs a new platform, but, you know, we struggle to take forever in order to figure out how to adapt what we have and put it in a new platform.    You know, what is it we can do specifically in like these types of things? We are not developing new stealth technology, fifth-generation fighter, but we are just learning from everything we have had, and we have just got to refresh and put it into maybe a different package. Like, why can't we do this faster? And what can we do to help especially in those two examples, you know, to be adaptive, to put these smart brains together, and develop something in 3 to 5 years that could be follow-ons to these type of platforms. Anybody want to jump in?</t>
   </si>
   <si>
@@ -595,9 +544,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman. I want to thank our witnesses for your testimony and appearance here today. It has been a very interesting discussion, obviously.    So I serve as the ranking member on the Subcommittee on Emerging Threats and we oversee all of our R&amp;D efforts, DARPA [Defense Advanced Research Projects Agency], and ONR [Office of Naval Research], and others. And just in S&amp;T directly, you know, the basic nature of S&amp;T development means that several failures often proceed as successful technology. DOD culture, and acquisition processes, and congressional oversight are often risk-averse at best, and punish failures at worst. How can this culture be changed or mitigated, or should it?</t>
   </si>
   <si>
@@ -620,9 +566,6 @@
   </si>
   <si>
     <t>412513</t>
-  </si>
-  <si>
-    <t>Paul Cook</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman. I apologize. I had to meet some constituents, so I probably missed some of the responses to maybe some of the questions that I am going to ask right now. And one of the problems I have is just the, and I am speaking as somebody that has been on the receiving end of some of these systems where they don't work, or they break down, or they just don't fit into the mission that you are supposed to have.    And I don't have the complex rocket ships and everything like that. I am talking about the M-16 when it first came out in Vietnam where a lot of Marines died because you had a lot of things wrong with it. And I actually had an opportunity to change it by talking to a guy by the name of Omar Bradley who had to be about 86 at the time where they dragged certain people from the field. That, the Gama Goat, the M-203, which was 5 years that I knew it was on deadline, never even saw it fired. I can go on, and on, and on.    And I don't know if we--and then I was just at a CODEL [congressional delegation] where somebody was asked a question about cybersecurity, and they said, we are just starting now. And in about 5 years, we are going to show it. We don't have 5 years. No one knows how long we are going to have with what is going on in this world right now.    So I think from somebody that is on the frontline, the troops, they want something right away, and something that fits their mission. And you can have a lot of different--but basically, it is to close with and destroy the enemy. And I am wondering if we launched that philosophy in World War II where we had certain systems that came out that didn't work, where almost within weeks, we had changed it. Unbelievable that we could do that.    And you look at what happens with the Sherman tanks in Normandy, where it was a field expedient by a sergeant that changed the whole thing, turned it into a Rhinoceros tank, changed the whole battlefield almost overnight. What did it cost, $15? And then they did it to all the tanks.    I can go on and on and on. But I think Congressman Walz had a good point. Sometimes I think the individual troops or what have you, the customer, the end recipient, the ones who have to live and die with this system--Iraq, when we had to upgrade our Humvees and the MRAP came down, great success, but in the interim X amount of people died or were wounded.    And I am just saying, to me, I think we have got to expedite that, and make it cost efficient and we have to put certain deadlines. And if it doesn't work, there has to be consequences. That is the bottom line. And some of these systems we can do it.    When we changed from the old bazooka to the 3.5 rocket launcher, sounds simple, but the bazooka was not able to penetrate the Russian tanks that were made; the 3.5 was. Now, 3.5 is long gone. They replaced it with the LAW [Light Anti-Tank Weapon], which was another piece of crap because it didn't function in humid conditions, so we had all these things come out to the system and what happens. All that stuff then went on and on and on.    So I think we almost need to incorporate that philosophy, what has happened in the past. And the best example I can give or hope that you would look at are the Israelis. The Israelis don't have time. You look at what they have done with their missile programs. You look at what they did in the Yom Kippur War that they almost lost and they changed certain things.    You look at the battleground, 2006 against Hezbollah along the Lebanese border, where they changed their MPCs [military personnel carriers] and tanks because the threat was there. And they didn't have 5, 10, 15, 20 years. They had to do it or they were going to not exist as a country.    And if you could comment very briefly, and I yak too much.</t>
@@ -1036,11 +979,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1060,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1086,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1112,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1138,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1164,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1190,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1216,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1242,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1268,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1296,11 +1219,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1320,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1348,11 +1267,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1372,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1400,11 +1315,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1424,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1452,11 +1363,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1476,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1502,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1528,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1554,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1580,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1606,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1632,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1658,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1684,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1710,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1736,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1762,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1788,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1814,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1840,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1866,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1892,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1918,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" t="s">
-        <v>58</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1944,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1970,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1996,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2022,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" t="s">
-        <v>58</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2048,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2074,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>57</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2100,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2126,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s">
-        <v>58</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2152,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2178,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s">
-        <v>58</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2204,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2230,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2256,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>72</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2282,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2308,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2334,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2360,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2386,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2412,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>72</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2438,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2464,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>72</v>
-      </c>
-      <c r="H57" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2490,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2516,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>72</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2542,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2568,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2594,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2620,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2646,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2672,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2698,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>85</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2724,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
-      </c>
-      <c r="G67" t="s">
-        <v>94</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2750,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2776,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>93</v>
-      </c>
-      <c r="G69" t="s">
-        <v>94</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2802,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2828,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" t="s">
-        <v>94</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2854,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2880,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" t="s">
-        <v>94</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2906,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2932,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75" t="s">
-        <v>94</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2958,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2984,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3010,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3036,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3062,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G80" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3088,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3114,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3140,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3166,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3192,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3218,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3244,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3270,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3296,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3322,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3348,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3374,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3400,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3426,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>111</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3452,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
-      </c>
-      <c r="G95" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3478,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3504,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3530,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3556,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3582,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>126</v>
-      </c>
-      <c r="G100" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3608,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3634,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
-      </c>
-      <c r="G102" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3660,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>136</v>
-      </c>
-      <c r="G103" t="s">
-        <v>137</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3686,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3712,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>136</v>
-      </c>
-      <c r="G105" t="s">
-        <v>137</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3738,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3764,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3790,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>136</v>
-      </c>
-      <c r="G108" t="s">
-        <v>137</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3816,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>144</v>
-      </c>
-      <c r="G109" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3842,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3868,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>144</v>
-      </c>
-      <c r="G111" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3894,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3920,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>144</v>
-      </c>
-      <c r="G113" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3946,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3972,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>144</v>
-      </c>
-      <c r="G115" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3998,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4024,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>144</v>
-      </c>
-      <c r="G117" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4050,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4076,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>144</v>
-      </c>
-      <c r="G119" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4102,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4128,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>144</v>
-      </c>
-      <c r="G121" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4154,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4180,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>144</v>
-      </c>
-      <c r="G123" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4206,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4232,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>144</v>
-      </c>
-      <c r="G125" t="s">
+        <v>129</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
         <v>145</v>
-      </c>
-      <c r="H125" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4258,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4284,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>144</v>
-      </c>
-      <c r="G127" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4310,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4336,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>144</v>
-      </c>
-      <c r="G129" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4362,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4388,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>144</v>
-      </c>
-      <c r="G131" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4414,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4440,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>144</v>
-      </c>
-      <c r="G133" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4466,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4492,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>144</v>
-      </c>
-      <c r="G135" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4518,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4544,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>144</v>
-      </c>
-      <c r="G137" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4570,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4596,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>144</v>
-      </c>
-      <c r="G139" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4622,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>172</v>
-      </c>
-      <c r="G140" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4648,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4674,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>172</v>
-      </c>
-      <c r="G142" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4700,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4726,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>172</v>
-      </c>
-      <c r="G144" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4752,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4778,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>172</v>
-      </c>
-      <c r="G146" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4804,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4830,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>172</v>
-      </c>
-      <c r="G148" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4856,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4882,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4908,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>172</v>
-      </c>
-      <c r="G151" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4934,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4960,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>172</v>
-      </c>
-      <c r="G153" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4986,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5012,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>172</v>
-      </c>
-      <c r="G155" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5038,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5064,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>172</v>
-      </c>
-      <c r="G157" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5090,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5116,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>172</v>
-      </c>
-      <c r="G159" t="s">
-        <v>173</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5142,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>192</v>
-      </c>
-      <c r="G160" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5168,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5194,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5220,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5246,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>192</v>
-      </c>
-      <c r="G164" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5272,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5298,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>192</v>
-      </c>
-      <c r="G166" t="s">
-        <v>193</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5324,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>201</v>
-      </c>
-      <c r="G167" t="s">
-        <v>202</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5350,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5376,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>201</v>
-      </c>
-      <c r="G169" t="s">
-        <v>202</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5402,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5428,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>201</v>
-      </c>
-      <c r="G171" t="s">
-        <v>202</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97494.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97494.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman. I am delighted that you are all here today. We appreciate it very much.    On behalf of the ranking chair, Mr. Smith, I wanted to submit his statement for the record and also acknowledge how difficult it is to find that appropriate balance between the acquisition cycle time, and risk. We know that needs to be done. And also, how do we nurture innovation and developmental testing within the acquisition cycle. That is also a big concern and something that he notes in this particular statement.    Again, thank you very much for being here. We look forward to your testimony.    The Chairman. Thank the gentlelady.    [The prepared statement of Mr. Smith can be found in the Appendix on page 45.]    The Chairman. We will now turn to our witnesses, Mr. Andrew Hunter, director of Defense-Industrial Initiatives Group at Center for Strategic and International Studies [CSIS]; Dr. David Chu, President of the Institute for Defense Analyses [IDA]; Mr. Joe Pasqua, member of the Business Executives for National Security [BENS]; and Mr. Paul Francis, managing director for acquisition and source management from the Government Accountability Office [GAO].    Without objection, your full written statements will be made part of the record, and I would ask each of you to summarize them at this point before we go to questions.    Mr. Hunter, I guess we are starting with you.</t>
   </si>
   <si>
     <t>412283</t>
   </si>
   <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hunter. Well, thank you, Mr. Chairman. And it is really a pleasure to be back here at the committee where I spent so much time learning from members like yourself, some of whom are still here and some of whom have departed the Congress. But it is a pleasure to be back.    And I commend the committee for its focus on acquisition reform, which is, I know, a focus of longstanding, but remains a very important focus, and obviously one that brings you into alignment, as you mentioned, with the leadership of the Senate Armed Services Committee and with the leadership of the Department of Defense.    And I do believe there is a golden opportunity here with this meeting of the minds or alignment of focus to make some real progress. And certainly at CSIS this has been a focus for us as well, so it is something that we share.    The focus today is on ``faster.'' I want to briefly mention the fact that acquisition is about balancing priorities. And so the old saw, ``Faster, better, cheaper: Pick any two,'' is something that I just want to start and mention that in picking ``faster'' you have to be willing to sacrifice at least one of the other two. And when I say ``sacrifice,'' I mean deemphasize or make a lower priority. And so if you are going ``faster,'' then either ``better'' or ``cheaper'' has to sort of be willing to give a bit in order to achieve a significantly faster outcome.    Now, of course, when I say ``sacrifice,'' when I mean ``better,'' better meaning not necessarily the highest end of capabilities. If you have a really old system, the new system you are buying is almost certainly going to be better than the one you are replacing, but it may not be the state of the art of the most latest technology. And these priorities shift over time.    And in the Cold War, in most cases, ``better'' was often the priority. I use in my written testimony the example of the B-2, which was innovative in almost every way as it was built and conceived and constructed, and that meant that it was expensive. And there was a major schedule delay in that program particularly because they changed the requirements in the middle of the development. And that was a choice that was made because ``better'' was what mattered then.    In the most recent time period, with the wars in Iraq and Afghanistan, ``faster'' has certainly been a priority. In my time at the Department of Defense, part of which was as director of the Joint Rapid Acquisition Cell, was really all about moving faster. And the Department achieved quite a bit of success in that, and I will get into that, because I think that is something that there are lessons learned that we need to take away from that.    But I do want to mention that in the time that we are in today, ``faster'' is not the only priority. We have an erosion of U.S. technical superiority that has been taking place over a number of years for a number of reasons, and we explored what some of those reasons are, in a CSIS report released over the summer.    And that is a case where we do need to be fielding at least some systems that are in the ``better'' category, where ``better'' is a priority so that we can maintain a technological advantage, which is part of our strategy. And also with the budget crisis that is currently being dealt with in the Congress, and maybe there is hopefully some progress being made there, ``cheaper'' has to be a priority for some systems. So your system has to be able to focus on different priorities for different systems at the same time.    Within my time as director of the Joint Rapid Acquisition Cell, we tried to capture the lessons learned from rapid acquisition. This was something that really spun up at the Department of Defense in the 2005 timeframe. And I came in, in 2013 as director of the Joint Rapid Acquisition Cell when we were trying to capture the lessons learned and trying to institutionalize those lessons. And Secretary Gates in his testimony last week made reference to the desire to institutionalize those lessons.    And I would draw your attention to the article in Foreign Affairs Magazine that Dr. Carter published in 2013 which goes into the lessons that he took away and how he tried to institutionalize those. And I would ask, if you are willing, that that might be made part of the record for this hearing, that article.    [The information referred to can be found in the Appendix on page 95.]</t>
   </si>
   <si>
@@ -67,12 +82,21 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Chu</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Chu. Thank you, Mr. Chairman. I appreciate the opportunity to be part of the panel this morning.    Let me try to summarize my written statement under three headings: First, what do we know about cycle time defined as the time from the start of a program until initial operational capability is achieved; second, to the extent there are issues with cycle time, what are they; and third, what can we do about those issues.    Looking at the Selected Acquisition Report data of the last 25, 30 years, I do not see any trend in the cycle time. Cycle time has been relatively stable, 8 to 9 years over that period. Our impression is very different, perhaps because some very large programs have taken a long time: F-22, V-22, and F-35, which, of course, is not completely finished with its development program.    To the extent that there is dissatisfaction with cycle time, I think a good deal of the source lies in the definition of the program at the start, what people like to call the requirements process, a term I actually would urge we drop. Because, in fact, we are always picking a point in the space of trades among the various features of the system concerned.    And our real interest ought to be how well the system performs against the mission needs for those in the field who are going to get it. Too often, from a technical perspective, looking back at history, we pick a point in the trade space that is too tough to achieve from a technological perspective within the timeframe that we might desire.    And that tendency is exacerbated, I would argue, by the incentives facing those responsible for the system, starting with the program manager. We reward program managers for getting programs to production, not for helping the system make a good decision, which in some cases, is to admit we have made a mistake and the program ought to end.    The services, likewise eager to have as much content within the fiscal guidance as they can possibly achieve, tend to plan for more than can actually be financed. And the companies look to production for the source of their return on capital have every incentive to be optimistic about development time and development needs.    If those are the sources of our dissatisfaction, what can we do about them? First and foremost, I think at the start we ought to take what some of my colleagues have called a physics-based approach to setting the technical parameters. What does the trade space look like? What point within that trade space do we want to select?    Second, as Mr. Hunter suggested, as one of my colleagues has phrased a bit edgily, we should prepare to be wrong. We should build systems knowing--especially the major platforms--knowing that we are likely to want to change them to aim at block upgrades across their lifetime, that means allowing for extra space, weight, power, et cetera, in the original design.    To be sure that we have picked the parameters thoughtfully, I think greater emphasis on development testing is essential. The Department System Acquisition Reform Act of 2009 called for that, and the fiscal year 2016 National Defense Authorization Act strengthens those provisions.    And finally, I think we ought to rethink the incentives that face the program managers and the services as well as the companies that produce the articles to emphasize, much as Intel does, as I understand it, that really the rewards are to go to those who give good advice, and sometimes that advice is the program is not meritorious, that not every program started ought to go to a finish.    Let me offer three observations very briefly in conclusion. First, I think the emphasis I would urge is less on whether or not we shorten the cycle time and more on understanding how do we pick the best cycle time for the need that we face. In some cases, we want an article urgently, we are willing to give up certain elements of performance in order to get that, or certain elements of long life that we would otherwise seek. MRAP is an excellent case in point. MRAP was achieved fairly rapidly, but was an article we decided not to retain, and we discarded approximately $40 billion worth of equipment. Some additional bias for flexibility will be helpful in shortening cycle times for those articles we want quickly.    Second, I think it is essential to keep our focus on mission performance as the ultimate standard, not on the technical parameters per se. It is the mission needs that are crucial. That includes, of course, deployment deadlines when those are significant.    And finally, as Secretary Gates' testimony, I would argue, last week at the Senate Armed Services Committee contended, perhaps the most important ingredient in success is the human capital, the quality of the people managing the system and the technical staff that support them, an issue, I think, that the National Defense Authorization Act for this fiscal year recognizes.    Thank you, Mr. Chairman.    [The prepared statement of Dr. Chu can be found in the Appendix on page 60.]    The Chairman. Thank you.    Mr. Pasqua.</t>
   </si>
   <si>
+    <t>Pasqua</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pasqua. Chairman Thornberry, members of the committee, my name is Joe Pasqua, and I am honored to be here today as a private citizen to address you.    Having been asked for ways to address shortening of the defense acquisition cycle, my statement today will focus on how the private sector has addressed similar challenges and increased their ability to adopt innovation quickly.    My testimony is based on over three decades in the information technology, the IT industry, and also as a member of BENS, Business Executives for National Security, which is a nonprofit, nonpartisan organization that for over 30 years has been a conduit through which private sector leaders can help build a more secure America. Although the opinions I am going to express today are largely reflective of BENS's perspectives, the views I express are my own.    I would first like to commend the committee's efforts at acquisition reform. I agree with Chairman Thornberry's approach to make incremental and achievable changes as a path to comprehensive reform. Because of the central role of IT in virtually all modern systems, the ability to efficiently specify, acquire, and adopt IT innovation has become a key success factor. Smaller, more agile companies are often the best sources of innovation; however, they can often be the most difficult to identify and engage with for large organizations.    In the past, barriers for both the Department and these small companies have impeded building effective relationships. Traditionally smaller companies haven't viewed DOD [Department of Defense] as a viable customer because they lack the specialized knowledge and the time that is required for operating in this space. It is not that they don't want to engage with DOD; it is just that it is too high a risk for these still small businesses.    So the question becomes, how are private sector companies addressing similar challenges? Over the last 5 to 7 years, there has been a fundamental change in the way that they specify and acquire IT. The rapid pace of innovation has made long, expensive requirements processes untenable. As a result, we are seeing less of what I referred to as ``big bang'' acquisitions; instead, companies are starting small, conducting iterative evaluations in real time, and adjusting as needed. Advances in cloud computing, scale-out architectures, and other technologies have enabled companies to test concepts quickly and purchase IT hardware as they need it rather than buying everything upfront.    This has been a challenge, quite frankly, for large organizations with high inertia and low risk thresholds. But even with these larger organizations, we are seeing that they are becoming more agile as a way to keep pace in a competitive marketplace. This shift has lessened the bias towards large, incumbent vendors and has given innovative new players a better opportunity to compete.    This new approach also helps to remove risk by keeping the initial investments small. Traditional requirements processes attempt to mitigate risk by conducting long-term, expensive studies to ensure all options, every conceivable outcome can be reviewed in advance of a decision. In contrast, an agile approach allows companies to start small and scale up as appropriate, thereby reducing the need for protracted requirements processes.    In fact, a traditional process has a different sort of risk, the risk that by the time a long acquisition process is complete, the solution that is chosen will no longer be appropriate. Nowhere is this more true in cyberspace where the threat landscape is changing on a continuous basis. In such a dynamic space, the requirements process needs to account for an organization's current needs and be able to adapt to the inevitable changes that will come. This is one reason why open architecture is so important. It provides increased interoperability, modularity, and the ability to incorporate new technologies without overhauling an entire system.    In summary, I believe that these practices and understanding and implementing these approaches would help the Department to become more agile and responsive to innovation, allow a slightly different, yet still very good risk mitigation strategy, and encourage participation from a wider segment of industry.    Thank you for the opportunity to speak today, and I am prepared to answer any questions you may have.    [The prepared statement of Mr. Pasqua can be found in the Appendix on page 71.]    The Chairman. Thank you.    Mr. Francis.</t>
   </si>
   <si>
+    <t>Francis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Francis. Good morning, Mr. Chairman, Mrs. Davis, members of the committee. I appreciate the opportunity to talk about weapons system acquisition this morning.    I think we know the overall problems being, weapons systems cost more and they take longer than expected. They perform well but generally not quite as well as we thought. I believe some of the top-level consequences are understood, that is the warfighter is somewhat underserved by systems that come late and buying power is reduced.    There are other consequences maybe that are less well understood; that is, when we pay more for a weapons system than we thought that we would in the beginning, we are making tradeoffs. We are deciding not to do other things because we are putting more money into this one system. And those opportunity costs I don't think are explicit or the tradeoffs are looked at, so we are not quite sure what we are giving up to put more money into system A.    The other thing is, weapons systems typically take more to operate and support than we think. They are a little less reliable. Again, those costs are kind of hidden once the acquisition is done. So, some consequences not so clear.    Our position is that the key to getting better acquisition outcomes, whether they are shorter cycle times, or as Dr. Chu mentioned, the right cycle times, is a better business case at milestone B. And I will talk about a business case in two parts: One is, what happens before milestone B. And that is when you are sending requirements and you really need your requirements to be--they need to be clear, flexible, but well informed by a couple of things: One is technology knowledge. How much technology is available to meet the requirement; and your engineering expertise. Do you understand the implications of the requirement for the design?    So if you come to a milestone B and you are asking for technologies that aren't mature yet, or you don't quite understand the implications for the design, you are in trouble. If you do come to milestone B with a pretty well-informed, reasonable set of requirements then you are kind of ready for the second half. And the second half of that is, what is your game plan going forward.    And we would say the second part of that business case then is a knowledge-based acquisition strategy that lays out a logical path for getting the design stable, building prototypes, testing, maturing the design, maturing production processes, and laying that out with the schedule and resources that allow that to be done nonconcurrently.    So, you ask yourself, well, why aren't we getting these kind of business cases routinely? Which is the David Packard question. We all know what needs to be done; the question is, why don't we do it? And I would say what I just described is a sound business case, but a sound business case isn't the same as a successful business case. And a successful business case is one that wins money.    And I still think predominantly in the Department, a successful business case is one that overstates or overpromises performance and understates cost and understates schedule. That is what still wins money today. And I would say the reason for that is there is still strong incentives, which we refer to as the acquisition culture in the Department, that put pressure on these kind of business cases.    And I will give you a couple examples of what is kind of under the hood. First is the competition for funds in the Pentagon is pretty intense to start a new program, so that does create incentives to overpromise performance and understate the investment cost. Also, weapons systems are highly symbolic. They are more than just a piece of equipment at the right price. They involve policies, roles and missions, careers, jobs, budget shares, so they carry a lot of weight.    If you look at the private sector, when the private sector does a product development, it is an expense. They are spending their own money to finance the development and they don't make any money until they get into production. So that creates real incentives to get the business case right, because if they are late, the customer walks. If you are Ford and you build a Ford Taurus that is 5 years late, it has a $50,000 sticker price and it gets bad gas mileage, your customer walks, and the investment is lost.    And the Department of Defense, when you get a program started, it is a revenue stream. It is not an expense. So you get a bigger budget share. And those incentives then are quite different. And at the end, the customer isn't going to walk. So if it costs too much, it takes longer, it underperforms, the customer is still going to buy.    So in the private sector, the point of sale is after development when you are in production. In the Department of Defense, the point of sale is at milestone B. In fact, I would say it is before milestone B when you first approve funding. So it is a completely different psychology.    That is why things like--practices like cost estimating, everyone wants--or you would say policy says we should have good cost estimates. We all know how to do a good cost estimate. But they don't really help your business case. They are pretty inconvenient if they are high. Same is true for a fly-before-buy in testing. You would want early test results to see how good the system is, but they could be inconvenient as well.    So I think the real kicker is, to the extent business cases like this win funding approval they are sanctioned, and those principles then become what policy is, not what is in best practices or DOD policy.    So what to do, I would just say let's start thinking about the acquisition process as not something that is broken but something that is held in equilibrium by a set of incentives that are stronger than best practices. You know, moving forward there is a number of things we can do, we will probably talk about that more this morning, but it is going to take joint action on the part of the DOD and Congress.    And I will just list a few things. One is we need to separate technology development from product development; we need to take risks in the right places, which I would say is early in programs; and if we have to take a risk on a program after milestone B, let's declare them and pay for them. Let's take the risk together and be honest about them.    We have to do something about better aligning funding decisions with program decisions, because today you are having to make a funding decision 18 months in advance of a program decision. So once you put money on the table you can't take it off. We really need, as Dr. Chu mentioned, a really good investment in program managers and systems engineering staff.    And then finally, I would say my hope, my appeal is to Congress to be the game changer in acquisition reform and that will be manifested by what you do in funding programs. So I would say for programs that don't measure up to good business cases, say no. I think a couple of good no's in the process from the Congress is going to send the right example as to what you expect.    So that is my hope. I am looking for you to be the game changers. Thank you, Mr. Chairman.    [The prepared statement of Mr. Francis can be found in the Appendix on page 79.]    The Chairman. Thank you.    I just want to ask each of you to comment, because each of you have touched on this in the comments that you have made so far. And one of the concerns that I have heard over and over is, especially for complex systems, we invent as we are in production. Dr. Chu said we reward programs for getting into production. Mr. Francis was just talking about this. So the incentive of the current system is to get that program past the milestone B, that is where you get the dedicated line of funding, and the incentive is to do that even if the technology has not been developed that you are going to rely upon.    And so, part of what happens is you are inventing as you are producing, and that results in delays, cost overruns, and so forth. So the suggestion has been made to me that if you separate technology development from production and you don't take anything to production until the technology is established and proven, that maybe you could improve that situation with the adaptability that you all talked about so that as improvements in technology are developed, then you can plug it in.    So Mr. Hunter, what is your reaction to that? I mean, part of what we are trying to do is get below the symptoms, the surface here, and dig down into deeper root causes that have caused people concern. Is this a root cause, and is that something that together we should explore with the Pentagon?</t>
   </si>
   <si>
@@ -112,6 +136,12 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Mr. Chairman, first of all, I want to thank you for your work in this area. You have done a lot to move this forward and this hearing is one of those things.    And our committee is always--we spend some time in the weeds looking at the specificity of what we need to do and then we move up and get kind of an aerial view. There are times we need to do the aerial because it shows us the trajectory and the curve lines that we have.    When Eisenhower left office in 1961, he warned of the influence of a permanent armaments industry of vast proportions. But in the years of the Cold War, we have seen the size of our industrial base shrink along with defense spending. 1961 defense contractors comprised 15 of the top 100 companies in America and made 30 percent of those top 100 companies' total revenue. Today, there are only 4 defense contractors in the top 100 and they make 4 percent of the total revenue.    Now, I know that is in part due to mergers and acquisitions and also tremendous growth in the commercial sector. But unfortunately for our national defense many of the commercial companies are hesitant to work with the DOD due to low profit margins, huge regulatory burdens, and demands that they turn over intellectual property.    Could you guys give us your opinion of the curve lines that you see that worry you about the industrial base and the acquisition process in terms of the health of our industrial base and its ability to meet the needs of our military, and also the flexibility that we might have. You know, we all talk about often in World War II how we could shift our manufacturing and produce other things. What worries you today about those curve lines, and is there anything we can do as a Congress to impact the curve lines?    Mr. Hunter, do you mind giving us your thoughts.</t>
   </si>
   <si>
@@ -136,6 +166,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman. And I too want to echo my thanks for you grabbing onto this issue we all know is critically important in working in. Thank you all for being here.    Just a couple questions, and I am interested amongst the different services and the performance amongst them because there appears to be a difference, if there is some lessons learned or if it is the nature of the service. This idea of breaches going through the cost ceiling's scheduled performance or whatever. I started looking at this.    While this pains me to say as a former soldier, the Army leads in this area with a 38 percent breach. I am kind of curious, from your perspectives, is this cultural? Is it the nature of it? Or what is at work there that would set them apart from the Air Force and the Navy?</t>
   </si>
   <si>
@@ -169,6 +205,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    I will throw this out for whoever wants to swing at it. Do you believe there is a bias in DOD goods and services procurement against public/private partnerships? For example, does it make sense for OMB [Office of Management and Budget] and CBO [Congressional Budget Office] to require 1-year scoring of the entire liability of a public/private partnership but not the same treatment for traditional goods and services government to contractor procurement? Dr. Chu.</t>
   </si>
   <si>
@@ -208,6 +250,9 @@
     <t xml:space="preserve">    Mr. Rogers. Thank you. I yield back.    The Chairman. Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Mr. Francis, I was very interested by your comments about opportunity costs and that when we have cost and time overruns, it is not just money and time in an absolute sense; it is the loss of something else that we could have been focusing on, spending dollars on, spending time on. I know it is hard to quantify a negative, but do you have any examples of what some of those opportunity costs were, specific programs?</t>
   </si>
   <si>
@@ -244,6 +289,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman. Gentlemen, thank you for joining us today. I want to talk about how things happen within the decisionmaking process on acquisition, and you pointed out some success models at the smaller scale where you can take a concept that comes from unit commanders. You develop that process of developing that idea with systems engineers, and you have program managers involved and contracting officers, and you end up with something that works and resembles what was needed at the very beginning. So that small-scale process you have shown works.    Let me ask this. How do we take that and graduate it to the large scale? How do we take emerging technology, compress the time process, be able to make sure that we have great communications from the unit commanders, to the systems engineers, to the program managers, to the contracting professionals, and getting that done?    It seems like to me today what we have is we have the unit commanders that are here, and then in a whole separate element there is the systems engineers that take that concept and develop it, and then in a separate place, in another area, are the folks that write the requirements, and then another group of folks that come up with the proposals and another group of folks that come up with the contracting process, so all of this is fragmented, and no wonder decision making goes awry, especially when it seems to be process-driven. People seem to be I got to check the box. And if I check the box, then I have done my job. Instead of saying, you know, let's focus on what the warfighter needs. Let's focus on getting that technology to them as quickly as we can. How do we do that?    How do we put authority into the hands of those people at every point in the process? How do we bring the decision making together? And how do we make sure that we also have accountability there so we don't go awry, or if we do go awry, we can either get things back on track or stop things immediately? Give me your perspective on how we make those things happen.</t>
   </si>
   <si>
@@ -268,6 +319,12 @@
     <t>412632</t>
   </si>
   <si>
+    <t>Moulton</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman. Gentlemen, thank you for being here. I just want to echo the chairman's comments that he began with, which were that I think that this is partly about conserving taxpayer dollars, which we know is incredibly important, especially in this budgetary environment, but even more importantly it is about responding to the next threats.    And you know, companies used to succeed in the light bulb industry by trying to be most efficient at making the light bulb for the least cost, and now companies succeed in that industry by being the quickest to develop the newest type of light bulb, to be the quickest into LED [light-emitting diode] technology. I think in my long tenure of almost 11 months on the committee, I have been a strong advocate of cutting programs that we don't need and old systems and legacy systems so that we can invest that money in the new ones, which I think is incredibly important.    One of the things that we need to do more of, as you have said, is be willing to accept the fact that technology development does not just occur in the Department of Defense anymore. It occurs outside. And there seems to be a conflict between the desire to get more commercial-off-the-shelf technology, and the MIL [military] standard requirements that this technology then has to meet.    And I think about how much more effective I would have been as an infantry officer on the battlefield if I could have used an iPhone. Now, if I were to get killed because my iPhone didn't meet that 100 percent requirement and failed at some point, there would be a lot of grief. But on the other hand, if we don't allow the iPhone on the battlefield for years because it can't meet that 100 percent requirement, a lot of people are going to die. And you might not see the news stories about it, but it will be a loss as well. So how do you think about better managing that conflict?</t>
   </si>
   <si>
@@ -298,6 +355,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. And I think the question of is perfection the enemy, is good enough to get the job done, is something that we all wrestle with. And I also wrestle with, for example, cancelling the F-22 line before another plane is ready to go. I don't think that General Electric or any manufacturer in the world would stop one line of refrigerators before they had another line that had proven that it was capable of doing so.    I want to talk with you a little bit about the rapid acquisition process and the JSTARS [Joint Surveillance Target Attack Radar System], that E-8 platform flies out of Robbins Air Force Base. We have discussed for a long time the rapid acquisition process. And this is effectively a platform where the technology is ready to go. It is just a matter of getting the go-ahead if you will and the decision from the Department of Defense with regard to which platform they want to go with, and we are going to end up with an operational capability gap because of the depot maintenance that is going to be required on that platform, and there is not a battle management platform that can take its place going forward.    So, just if you could speak to why is there the delay when the Air Force knows what it wants, when they know the rapid acquisition process would save money, they know they have to field a new fleet, and the delay is actually going to result in an operational capability gap of a couple of years before full operational capability comes back, what factors contribute to programs being lengthened, even when they have those high levels of technological readiness for the major systems and subsystems?</t>
   </si>
   <si>
@@ -313,6 +376,9 @@
     <t xml:space="preserve">    Mr. Scott. What about just the example of shutting down, for example, the C-17 line without another lift capability ready to go? I am out of time. I apologize. I yield.    The Chairman. Interesting questions. Mr. Castro.</t>
   </si>
   <si>
+    <t>Castro</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Castro. Thanks, Chairman. I know that we talked about the competitiveness of the process in contracting and how it has become dominated over the years by a smaller group of companies. Some of that is due to consolidation. We also talked about how hard it is for commercial enterprises to break into defense work.    So I guess let me ask you, we also have in front of us information on the cost overruns and breaches for each of the divisions. Is there any penalty for a contractor who experiences a cost overrun on a contract? Or I should ask what is the penalty?</t>
   </si>
   <si>
@@ -358,6 +424,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. Over the course of the war in Afghanistan, we saw ground combat vehicles undergo a number of upgrades and additions because of new and increasing threats. But specifically in the Army, protecting the safety of our soldiers also added additional weight of combat vehicles, and, therefore, we had subsequent challenges to maneuverability and rapid deployability.    I represent the Army's 10th Mountain Division, and lightweight weapons systems, body armor, and operational mobility are essential capabilities for the 10th Mountain. So the struggle as I see it is how do you balance the weight against the protection, against the budget? So for example, obviously a vehicle built out of titanium would address the weight challenges, but the cost would be much greater.    So how can we as Congress help the DOD make those needed upgrades or obtain new and affordable materials which are able to stop emerging threats?</t>
   </si>
   <si>
@@ -385,6 +457,12 @@
     <t>412259</t>
   </si>
   <si>
+    <t>Speier</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Speier. Thank you, Mr. Chairman. Thank you to our experts who are here today. You know it has been said that we have the best weapons in the world, but our acquisition pipeline often gets us those weapons late and over budget.    Mr. Francis, you have said that to describe our acquisition process as broken is an oversimplification because it implies that it can merely be fixed. Time and time again we have tried to overhaul this process. We come up with the same challenges, an ingrained culture, an inadequately trained workforce, an inexperienced set of program managers, and a dangerous revolving door to industry.    In March of 2015, the GAO issued a report that 19 of the 38 assessed programs reported they planned to begin production prior to completing software development needed for baseline capabilities. A perfect example is the F-35, where software for even basic capabilities necessary for testing and evaluation are running months behind. As weapons systems grow in complexity, this is a problem that will come up more often than before.    How can we adjust our acquisitions process to better develop and test the software components of the hardware? And that question is open to any of you.</t>
   </si>
   <si>
@@ -406,6 +484,12 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Just following up on that, you talked about all those programs that have been to be, quote, ``looked at.'' Obviously, they have to be looked at. They are going to cost us billions of dollars. You are planning on building them. Looked at, A, from the standpoint of do we even need it? Is that is what you are saying? I mean, if you could be specific because, I mean, you rattled off basically all of the major programs that we are planning on building over the course of the next decade or so.    And you know, Ohio class, Long Range Strike, JLTV [Joint Light Tactical Vehicle], are there any of those that you would say from a warfighting standpoint, why are we building this? We don't really need it. That is one. And then two, are we making some of the same mistakes with those programs that we made with the F-35, basically constructing the plane as it is working its way down the runway? And those are my two questions.</t>
   </si>
   <si>
@@ -487,6 +571,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman. And thank the gentlemen. I spent 26 years in the Air Force, and I was lucky that I didn't get any assignments to the Pentagon. So my perspective comes from the warfighter end of that perspective.    We had a hearing earlier this year and my first question is about development of aircraft, not Joint Strike Fighter-type aircraft, but say, follow-on to the EC130, or follow-on to the A-10 for a light-attack aircraft.    In a hearing earlier this year, I asked the Pentagon official if we decided today that we wanted to develop a light-attack aircraft--again, this is not complicated technology. It is just all of the things that we have learned about what does permissive CAS [close air support] and does it well to follow on to the A-10, and we decided, today if we wanted to do it, how long would it take? And he said about 15 years, I think was his answer.    I look at the EC130. We know the guts of the EC130 is working. It has got a great mission set. We know it needs a new platform, but, you know, we struggle to take forever in order to figure out how to adapt what we have and put it in a new platform.    You know, what is it we can do specifically in like these types of things? We are not developing new stealth technology, fifth-generation fighter, but we are just learning from everything we have had, and we have just got to refresh and put it into maybe a different package. Like, why can't we do this faster? And what can we do to help especially in those two examples, you know, to be adaptive, to put these smart brains together, and develop something in 3 to 5 years that could be follow-ons to these type of platforms. Anybody want to jump in?</t>
   </si>
   <si>
@@ -544,6 +634,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman. I want to thank our witnesses for your testimony and appearance here today. It has been a very interesting discussion, obviously.    So I serve as the ranking member on the Subcommittee on Emerging Threats and we oversee all of our R&amp;D efforts, DARPA [Defense Advanced Research Projects Agency], and ONR [Office of Naval Research], and others. And just in S&amp;T directly, you know, the basic nature of S&amp;T development means that several failures often proceed as successful technology. DOD culture, and acquisition processes, and congressional oversight are often risk-averse at best, and punish failures at worst. How can this culture be changed or mitigated, or should it?</t>
   </si>
   <si>
@@ -566,6 +662,12 @@
   </si>
   <si>
     <t>412513</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Paul</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman. I apologize. I had to meet some constituents, so I probably missed some of the responses to maybe some of the questions that I am going to ask right now. And one of the problems I have is just the, and I am speaking as somebody that has been on the receiving end of some of these systems where they don't work, or they break down, or they just don't fit into the mission that you are supposed to have.    And I don't have the complex rocket ships and everything like that. I am talking about the M-16 when it first came out in Vietnam where a lot of Marines died because you had a lot of things wrong with it. And I actually had an opportunity to change it by talking to a guy by the name of Omar Bradley who had to be about 86 at the time where they dragged certain people from the field. That, the Gama Goat, the M-203, which was 5 years that I knew it was on deadline, never even saw it fired. I can go on, and on, and on.    And I don't know if we--and then I was just at a CODEL [congressional delegation] where somebody was asked a question about cybersecurity, and they said, we are just starting now. And in about 5 years, we are going to show it. We don't have 5 years. No one knows how long we are going to have with what is going on in this world right now.    So I think from somebody that is on the frontline, the troops, they want something right away, and something that fits their mission. And you can have a lot of different--but basically, it is to close with and destroy the enemy. And I am wondering if we launched that philosophy in World War II where we had certain systems that came out that didn't work, where almost within weeks, we had changed it. Unbelievable that we could do that.    And you look at what happens with the Sherman tanks in Normandy, where it was a field expedient by a sergeant that changed the whole thing, turned it into a Rhinoceros tank, changed the whole battlefield almost overnight. What did it cost, $15? And then they did it to all the tanks.    I can go on and on and on. But I think Congressman Walz had a good point. Sometimes I think the individual troops or what have you, the customer, the end recipient, the ones who have to live and die with this system--Iraq, when we had to upgrade our Humvees and the MRAP came down, great success, but in the interim X amount of people died or were wounded.    And I am just saying, to me, I think we have got to expedite that, and make it cost efficient and we have to put certain deadlines. And if it doesn't work, there has to be consequences. That is the bottom line. And some of these systems we can do it.    When we changed from the old bazooka to the 3.5 rocket launcher, sounds simple, but the bazooka was not able to penetrate the Russian tanks that were made; the 3.5 was. Now, 3.5 is long gone. They replaced it with the LAW [Light Anti-Tank Weapon], which was another piece of crap because it didn't function in humid conditions, so we had all these things come out to the system and what happens. All that stuff then went on and on and on.    So I think we almost need to incorporate that philosophy, what has happened in the past. And the best example I can give or hope that you would look at are the Israelis. The Israelis don't have time. You look at what they have done with their missile programs. You look at what they did in the Yom Kippur War that they almost lost and they changed certain things.    You look at the battleground, 2006 against Hezbollah along the Lebanese border, where they changed their MPCs [military personnel carriers] and tanks because the threat was there. And they didn't have 5, 10, 15, 20 years. They had to do it or they were going to not exist as a country.    And if you could comment very briefly, and I yak too much.</t>
@@ -929,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,7 +1039,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,4085 +1061,4804 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G48" t="s">
+        <v>63</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>101</v>
+      </c>
       <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>101</v>
+      </c>
       <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>101</v>
+      </c>
       <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>101</v>
+      </c>
       <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>101</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G76" t="s">
+        <v>113</v>
+      </c>
       <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
       <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G78" t="s">
+        <v>113</v>
+      </c>
       <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
+        <v>113</v>
+      </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>120</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>120</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>120</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
       <c r="H86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>120</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
       <c r="H88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>120</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>120</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G95" t="s">
+        <v>136</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G100" t="s">
+        <v>136</v>
+      </c>
       <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G102" t="s">
+        <v>136</v>
+      </c>
       <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G103" t="s">
+        <v>147</v>
+      </c>
       <c r="H103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G105" t="s">
+        <v>147</v>
+      </c>
       <c r="H105" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
       <c r="H107" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G108" t="s">
+        <v>147</v>
+      </c>
       <c r="H108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>129</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G109" t="s">
+        <v>156</v>
+      </c>
       <c r="H109" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>129</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G111" t="s">
+        <v>156</v>
+      </c>
       <c r="H111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>129</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G113" t="s">
+        <v>156</v>
+      </c>
       <c r="H113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>129</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G115" t="s">
+        <v>156</v>
+      </c>
       <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>129</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G117" t="s">
+        <v>156</v>
+      </c>
       <c r="H117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>129</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G119" t="s">
+        <v>156</v>
+      </c>
       <c r="H119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>129</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G121" t="s">
+        <v>156</v>
+      </c>
       <c r="H121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>129</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G123" t="s">
+        <v>156</v>
+      </c>
       <c r="H123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
       <c r="H124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>129</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G125" t="s">
+        <v>156</v>
+      </c>
       <c r="H125" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
       <c r="H126" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>129</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G127" t="s">
+        <v>156</v>
+      </c>
       <c r="H127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I127" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
       <c r="H128" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I128" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>129</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G129" t="s">
+        <v>156</v>
+      </c>
       <c r="H129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
       <c r="H130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I130" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>129</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G131" t="s">
+        <v>156</v>
+      </c>
       <c r="H131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
       <c r="H132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>129</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G133" t="s">
+        <v>156</v>
+      </c>
       <c r="H133" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
       <c r="H134" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>129</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G135" t="s">
+        <v>156</v>
+      </c>
       <c r="H135" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
       <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>129</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G137" t="s">
+        <v>156</v>
+      </c>
       <c r="H137" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
       <c r="H138" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>129</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>155</v>
+      </c>
+      <c r="G139" t="s">
+        <v>156</v>
+      </c>
       <c r="H139" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>156</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G140" t="s">
+        <v>185</v>
+      </c>
       <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I140" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
       <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>156</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G142" t="s">
+        <v>185</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
       <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I143" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>156</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G144" t="s">
+        <v>185</v>
+      </c>
       <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
       <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I145" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>156</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G146" t="s">
+        <v>185</v>
+      </c>
       <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I146" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>156</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G148" t="s">
+        <v>185</v>
+      </c>
       <c r="H148" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>26</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>156</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G151" t="s">
+        <v>185</v>
+      </c>
       <c r="H151" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I151" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>26</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>156</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G153" t="s">
+        <v>185</v>
+      </c>
       <c r="H153" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I153" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>26</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>156</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G155" t="s">
+        <v>185</v>
+      </c>
       <c r="H155" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
       <c r="H156" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I156" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>156</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G157" t="s">
+        <v>185</v>
+      </c>
       <c r="H157" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>156</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G159" t="s">
+        <v>185</v>
+      </c>
       <c r="H159" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I159" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>175</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>205</v>
+      </c>
+      <c r="G160" t="s">
+        <v>206</v>
+      </c>
       <c r="H160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>207</v>
+      </c>
+      <c r="I160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>26</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>22</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
       <c r="H163" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>175</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>205</v>
+      </c>
+      <c r="G164" t="s">
+        <v>206</v>
+      </c>
       <c r="H164" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>207</v>
+      </c>
+      <c r="I164" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>24</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>175</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>205</v>
+      </c>
+      <c r="G166" t="s">
+        <v>206</v>
+      </c>
       <c r="H166" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>207</v>
+      </c>
+      <c r="I166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>183</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G167" t="s">
+        <v>216</v>
+      </c>
       <c r="H167" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I167" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>22</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>183</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G169" t="s">
+        <v>216</v>
+      </c>
       <c r="H169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I169" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>22</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>183</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G171" t="s">
+        <v>216</v>
+      </c>
       <c r="H171" t="s">
-        <v>188</v>
+        <v>217</v>
+      </c>
+      <c r="I171" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97494.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97494.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Davis</t>
   </si>
   <si>
@@ -482,6 +488,9 @@
   </si>
   <si>
     <t>400379</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Smith</t>
@@ -1031,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,7 +1048,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,4801 +1073,5180 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>78</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G67" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G73" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G75" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G78" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G80" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>120</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>122</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>120</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>122</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>120</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>122</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>120</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>122</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>120</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>122</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>120</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>122</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>120</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>122</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G95" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I95" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G100" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I100" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>26</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G102" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G103" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I103" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G105" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I105" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I107" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G108" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I108" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G109" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H109" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G111" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H111" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I111" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G113" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H113" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I113" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>28</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G115" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H115" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>26</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>28</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G117" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H117" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>26</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>28</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G119" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H119" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I119" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G121" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I121" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>28</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G123" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H123" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I123" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J123" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G124" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I124" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J124" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G125" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H125" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I125" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J125" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I126" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G127" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H127" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I127" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G129" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I129" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J129" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I130" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G131" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I132" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G133" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I133" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G135" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I136" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G137" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H137" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I138" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J138" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G139" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H139" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I139" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G140" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I140" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J140" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I141" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J141" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G142" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I142" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I143" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J143" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G144" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I144" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I145" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G146" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I146" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J146" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>22</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>24</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G148" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I148" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>22</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>24</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>26</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>28</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G151" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I151" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" t="s">
-        <v>26</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>28</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G153" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I153" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s">
-        <v>26</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>28</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G155" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I155" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G156" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I156" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J156" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G157" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I157" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>26</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G159" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I159" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G160" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I160" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J160" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>26</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>28</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>22</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>24</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G163" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I163" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G164" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I164" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J164" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>24</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>26</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G166" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I166" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J166" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G167" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I167" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J167" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>22</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>24</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G169" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I169" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" t="s">
-        <v>22</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>24</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G171" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I171" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="J171" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
